--- a/CaseRecords12-07-2023.xlsx
+++ b/CaseRecords12-07-2023.xlsx
@@ -432,6 +432,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="56" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
